--- a/src/main/resources/products-Excel.xlsx
+++ b/src/main/resources/products-Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F343D487-1859-4744-814D-BAC5600B504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6298C-2BD4-475A-A96D-280EE7310EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6B59C98-8537-4701-B434-75DDBC406416}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6B59C98-8537-4701-B434-75DDBC406416}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6330" uniqueCount="1601">
   <si>
     <t>ProductName</t>
   </si>
@@ -4682,6 +4682,147 @@
   </si>
   <si>
     <t>https://static-ecpa.acer.com/media/catalog/product/p/r/predator-helios-18-ph18-72-perkey-backlit-on-wp-black-01-1000x1000_nh.qp4aa.002.png?optimize=high&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=320&amp;width=320&amp;canvas=320:320&amp;format=jpeg</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/ASUS-Vivobook-16X-OLED-K3605/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/ASUS-Vivobook-16-M1605/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/ASUS-Vivobook-S-15-OLED-K5504/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/ASUS-Vivobook-S-14-OLED-K5404/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/ProArt/ProArt-Studiobook-Pro-16-OLED-W7604/</t>
+  </si>
+  <si>
+    <t>https://rog.asus.com/ca-en/laptops/rog-strix/rog-strix-scar-17-x3d-2023/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-Go-15-OLED-E1504F/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/Zenbook/Zenbook-Pro-14-OLED-UX6404/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-14-Flip-OLED-UP3404/</t>
+  </si>
+  <si>
+    <t>https://rog.asus.com/ca-en/laptops/rog-flow/rog-flow-x16-2023-series/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/vivobook-15-m1502/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/Vivobook/ASUS-Vivobook-Pro-15-OLED-K6502/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/Vivobook/Vivobook-Pro-16-OLED-K6602/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/ASUS-Vivobook-S-16-Flip-TP3604/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-Go-14-Flip-J1400/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Everyday-use/ASUS-L210/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Everyday-use/ASUS-L510/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Everyday-use/ASUS-L410/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-13-Slate-OLED-T3300/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/Zenbook/zenbook-pro-14-duo-oled-ux8402/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/Zenbook/Zenbook-Pro-17-UM6702-AMD-Ryzen-6000-series/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-16X-M1603-AMD-Ryzen-5000-series/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-S-15-OLED-K3502-12th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-14-UM425-QA/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-Duo-14-UX482/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-Flip-14-TP470/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-14X-OLED-UX5400-12th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-14X-OLED-Space-Edition-UX5401-12th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/Zenbook/Zenbook-Pro-Duo-15-OLED-UX582-11th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-Pro-15-OLED-K3500-11th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-Pro-15-OLED-UM535-AMD-Ryzen-5000-Series/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-S15-S533-11th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-S-UX393-11th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-Flip-14-TM420-AMD-Ryzen-5000-Series/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Zenbook/Zenbook-Flip-13-OLED-UX363-11th-Gen-Intel/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/ASUS-Vivobook-Flip-14-TP401/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Home/Vivobook/Vivobook-17-X712/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Work/ExpertBook/ExpertBook-P5-P5405/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Students/Chromebook/ASUS-Chromebook-CR11-Flip-CR1104F/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Students/Chromebook/ASUS-Chromebook-CR11-CR1104C/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Students/Chromebook/ASUS-Chromebook-CZ11-CZ1104C/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Work/ExpertBook/ExpertBook-B3-Flip-B3402-Series-1/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Creators/ProArt/ProArt-PZ13-HT5306/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Gaming/TUF-Gaming/ASUS-TUF-Gaming-A14-2024/</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/ca-en/Laptops/For-Gaming/TUF-Gaming/ASUS-TUF-Gaming-A16-2024-FA608/</t>
+  </si>
+  <si>
+    <t>https://rog.asus.com/ca-en/laptops/rog-flow/2021-rog-flow-x13-series/</t>
   </si>
 </sst>
 </file>
@@ -5553,22 +5694,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068153E-CE61-4AE3-ACD6-6199127DD3CE}">
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:K628"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="105" workbookViewId="0">
+      <selection activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1464</v>
       </c>
@@ -5599,8 +5740,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1465</v>
       </c>
@@ -5632,7 +5776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1465</v>
       </c>
@@ -5664,7 +5808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1465</v>
       </c>
@@ -5696,7 +5840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1465</v>
       </c>
@@ -5728,7 +5872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1465</v>
       </c>
@@ -5760,7 +5904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1465</v>
       </c>
@@ -5792,7 +5936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1465</v>
       </c>
@@ -5824,7 +5968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1465</v>
       </c>
@@ -5856,7 +6000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1465</v>
       </c>
@@ -5888,7 +6032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1465</v>
       </c>
@@ -5920,7 +6064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1465</v>
       </c>
@@ -5952,7 +6096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1465</v>
       </c>
@@ -5984,7 +6128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1465</v>
       </c>
@@ -6016,7 +6160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1465</v>
       </c>
@@ -6048,7 +6192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1465</v>
       </c>
@@ -6080,7 +6224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1465</v>
       </c>
@@ -6112,7 +6256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1465</v>
       </c>
@@ -6144,7 +6288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1465</v>
       </c>
@@ -6176,7 +6320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1465</v>
       </c>
@@ -6208,7 +6352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1465</v>
       </c>
@@ -6240,7 +6384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1465</v>
       </c>
@@ -6272,7 +6416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1465</v>
       </c>
@@ -6304,7 +6448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1465</v>
       </c>
@@ -6336,7 +6480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1465</v>
       </c>
@@ -6368,7 +6512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1465</v>
       </c>
@@ -6400,7 +6544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1465</v>
       </c>
@@ -6432,7 +6576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1465</v>
       </c>
@@ -6464,7 +6608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1465</v>
       </c>
@@ -6496,7 +6640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1465</v>
       </c>
@@ -6528,7 +6672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1465</v>
       </c>
@@ -6560,7 +6704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1465</v>
       </c>
@@ -6592,7 +6736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1465</v>
       </c>
@@ -6624,7 +6768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1465</v>
       </c>
@@ -6656,7 +6800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1465</v>
       </c>
@@ -6688,7 +6832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1465</v>
       </c>
@@ -6720,7 +6864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1465</v>
       </c>
@@ -6752,7 +6896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1465</v>
       </c>
@@ -6784,7 +6928,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1465</v>
       </c>
@@ -6816,7 +6960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1465</v>
       </c>
@@ -6848,7 +6992,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1465</v>
       </c>
@@ -6880,7 +7024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1465</v>
       </c>
@@ -6912,7 +7056,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1465</v>
       </c>
@@ -6944,7 +7088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1465</v>
       </c>
@@ -6976,7 +7120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1465</v>
       </c>
@@ -7008,7 +7152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1465</v>
       </c>
@@ -7040,7 +7184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1465</v>
       </c>
@@ -7072,7 +7216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1465</v>
       </c>
@@ -7104,7 +7248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1465</v>
       </c>
@@ -7136,7 +7280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1465</v>
       </c>
@@ -7168,7 +7312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1465</v>
       </c>
@@ -7200,7 +7344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1465</v>
       </c>
@@ -7232,7 +7376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1465</v>
       </c>
@@ -7264,7 +7408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1465</v>
       </c>
@@ -7296,7 +7440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1465</v>
       </c>
@@ -7328,7 +7472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1465</v>
       </c>
@@ -7360,7 +7504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1465</v>
       </c>
@@ -7392,7 +7536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1465</v>
       </c>
@@ -7424,7 +7568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1465</v>
       </c>
@@ -7456,7 +7600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1465</v>
       </c>
@@ -7488,7 +7632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1465</v>
       </c>
@@ -7520,7 +7664,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1465</v>
       </c>
@@ -7552,7 +7696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1465</v>
       </c>
@@ -7584,7 +7728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1465</v>
       </c>
@@ -7616,7 +7760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1465</v>
       </c>
@@ -7648,7 +7792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1465</v>
       </c>
@@ -7680,7 +7824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1465</v>
       </c>
@@ -7712,7 +7856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1465</v>
       </c>
@@ -7744,7 +7888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1465</v>
       </c>
@@ -7776,7 +7920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1465</v>
       </c>
@@ -7808,7 +7952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1465</v>
       </c>
@@ -7840,7 +7984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1465</v>
       </c>
@@ -7872,7 +8016,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1465</v>
       </c>
@@ -7904,7 +8048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1465</v>
       </c>
@@ -7936,7 +8080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1465</v>
       </c>
@@ -7968,7 +8112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1465</v>
       </c>
@@ -8000,7 +8144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1465</v>
       </c>
@@ -8032,7 +8176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1465</v>
       </c>
@@ -8064,7 +8208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1465</v>
       </c>
@@ -8096,7 +8240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1465</v>
       </c>
@@ -8128,7 +8272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1465</v>
       </c>
@@ -8160,7 +8304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1465</v>
       </c>
@@ -8192,7 +8336,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1465</v>
       </c>
@@ -8224,7 +8368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1465</v>
       </c>
@@ -8256,7 +8400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1465</v>
       </c>
@@ -8288,7 +8432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1465</v>
       </c>
@@ -8320,7 +8464,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1465</v>
       </c>
@@ -8352,7 +8496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1465</v>
       </c>
@@ -8384,7 +8528,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1465</v>
       </c>
@@ -8416,7 +8560,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1466</v>
       </c>
@@ -8448,7 +8592,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1466</v>
       </c>
@@ -8480,7 +8624,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1466</v>
       </c>
@@ -8512,7 +8656,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1466</v>
       </c>
@@ -8544,7 +8688,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1466</v>
       </c>
@@ -8576,7 +8720,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1466</v>
       </c>
@@ -8608,7 +8752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1466</v>
       </c>
@@ -8640,7 +8784,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1466</v>
       </c>
@@ -8672,7 +8816,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1466</v>
       </c>
@@ -8704,7 +8848,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1466</v>
       </c>
@@ -8736,7 +8880,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1466</v>
       </c>
@@ -8768,7 +8912,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1466</v>
       </c>
@@ -8800,7 +8944,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1466</v>
       </c>
@@ -8832,7 +8976,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1466</v>
       </c>
@@ -8864,7 +9008,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1466</v>
       </c>
@@ -8896,7 +9040,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1466</v>
       </c>
@@ -8928,7 +9072,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1466</v>
       </c>
@@ -8960,7 +9104,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1466</v>
       </c>
@@ -8992,7 +9136,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1466</v>
       </c>
@@ -9024,7 +9168,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1466</v>
       </c>
@@ -9056,7 +9200,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1466</v>
       </c>
@@ -9088,7 +9232,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1466</v>
       </c>
@@ -9120,7 +9264,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1466</v>
       </c>
@@ -9152,7 +9296,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1466</v>
       </c>
@@ -9184,7 +9328,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1466</v>
       </c>
@@ -9216,7 +9360,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1466</v>
       </c>
@@ -9248,7 +9392,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1466</v>
       </c>
@@ -9280,7 +9424,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1466</v>
       </c>
@@ -9312,7 +9456,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1466</v>
       </c>
@@ -9344,7 +9488,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1466</v>
       </c>
@@ -9376,7 +9520,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1466</v>
       </c>
@@ -9408,7 +9552,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1466</v>
       </c>
@@ -9440,7 +9584,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1466</v>
       </c>
@@ -9472,7 +9616,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1466</v>
       </c>
@@ -9504,7 +9648,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1466</v>
       </c>
@@ -9536,7 +9680,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1466</v>
       </c>
@@ -9568,7 +9712,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1466</v>
       </c>
@@ -9600,7 +9744,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1466</v>
       </c>
@@ -9632,7 +9776,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1466</v>
       </c>
@@ -9664,7 +9808,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1466</v>
       </c>
@@ -9696,7 +9840,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1466</v>
       </c>
@@ -9728,7 +9872,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1466</v>
       </c>
@@ -9760,7 +9904,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1466</v>
       </c>
@@ -9792,7 +9936,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1466</v>
       </c>
@@ -9824,7 +9968,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1466</v>
       </c>
@@ -9856,7 +10000,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1466</v>
       </c>
@@ -9888,7 +10032,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1466</v>
       </c>
@@ -9920,7 +10064,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1466</v>
       </c>
@@ -9952,7 +10096,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1466</v>
       </c>
@@ -9984,7 +10128,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1466</v>
       </c>
@@ -10016,7 +10160,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1466</v>
       </c>
@@ -10048,7 +10192,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1466</v>
       </c>
@@ -10080,7 +10224,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1466</v>
       </c>
@@ -10112,7 +10256,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1466</v>
       </c>
@@ -10144,7 +10288,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1466</v>
       </c>
@@ -10176,7 +10320,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1466</v>
       </c>
@@ -10208,7 +10352,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1466</v>
       </c>
@@ -10240,7 +10384,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1466</v>
       </c>
@@ -10272,7 +10416,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1466</v>
       </c>
@@ -10304,7 +10448,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1466</v>
       </c>
@@ -10336,7 +10480,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1466</v>
       </c>
@@ -10368,7 +10512,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1466</v>
       </c>
@@ -10400,7 +10544,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1466</v>
       </c>
@@ -10432,7 +10576,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1466</v>
       </c>
@@ -10464,7 +10608,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1466</v>
       </c>
@@ -10496,7 +10640,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1466</v>
       </c>
@@ -10528,7 +10672,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1466</v>
       </c>
@@ -10560,7 +10704,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1466</v>
       </c>
@@ -10592,7 +10736,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1466</v>
       </c>
@@ -10624,7 +10768,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1466</v>
       </c>
@@ -10656,7 +10800,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1466</v>
       </c>
@@ -10688,7 +10832,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1466</v>
       </c>
@@ -10720,7 +10864,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1466</v>
       </c>
@@ -10752,7 +10896,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1466</v>
       </c>
@@ -10784,7 +10928,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1466</v>
       </c>
@@ -10816,7 +10960,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1466</v>
       </c>
@@ -10848,7 +10992,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1466</v>
       </c>
@@ -10880,7 +11024,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1466</v>
       </c>
@@ -10912,7 +11056,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1466</v>
       </c>
@@ -10944,7 +11088,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1466</v>
       </c>
@@ -10976,7 +11120,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1466</v>
       </c>
@@ -11008,7 +11152,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1466</v>
       </c>
@@ -11040,7 +11184,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1466</v>
       </c>
@@ -11072,7 +11216,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1466</v>
       </c>
@@ -11104,7 +11248,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1466</v>
       </c>
@@ -11136,7 +11280,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1466</v>
       </c>
@@ -11168,7 +11312,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1466</v>
       </c>
@@ -11200,7 +11344,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1466</v>
       </c>
@@ -11232,7 +11376,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1466</v>
       </c>
@@ -11264,7 +11408,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1466</v>
       </c>
@@ -11296,7 +11440,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1466</v>
       </c>
@@ -11328,7 +11472,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1466</v>
       </c>
@@ -11360,7 +11504,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1466</v>
       </c>
@@ -11392,7 +11536,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1466</v>
       </c>
@@ -11424,7 +11568,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1466</v>
       </c>
@@ -11456,7 +11600,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1466</v>
       </c>
@@ -11488,7 +11632,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1466</v>
       </c>
@@ -11520,7 +11664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1466</v>
       </c>
@@ -11552,7 +11696,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1466</v>
       </c>
@@ -11584,7 +11728,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1466</v>
       </c>
@@ -11616,7 +11760,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1466</v>
       </c>
@@ -11648,7 +11792,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1466</v>
       </c>
@@ -11680,7 +11824,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1466</v>
       </c>
@@ -11712,7 +11856,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1466</v>
       </c>
@@ -11744,7 +11888,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1466</v>
       </c>
@@ -11776,7 +11920,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1466</v>
       </c>
@@ -11808,7 +11952,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1466</v>
       </c>
@@ -11840,7 +11984,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1466</v>
       </c>
@@ -11872,7 +12016,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1466</v>
       </c>
@@ -11904,7 +12048,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1466</v>
       </c>
@@ -11936,7 +12080,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1466</v>
       </c>
@@ -11968,7 +12112,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1466</v>
       </c>
@@ -12000,7 +12144,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1466</v>
       </c>
@@ -12032,7 +12176,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1466</v>
       </c>
@@ -12064,7 +12208,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1466</v>
       </c>
@@ -12096,7 +12240,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1466</v>
       </c>
@@ -12128,7 +12272,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1466</v>
       </c>
@@ -12160,7 +12304,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1466</v>
       </c>
@@ -12192,7 +12336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1466</v>
       </c>
@@ -12224,7 +12368,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1466</v>
       </c>
@@ -12256,7 +12400,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1466</v>
       </c>
@@ -12288,7 +12432,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1466</v>
       </c>
@@ -12320,7 +12464,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1466</v>
       </c>
@@ -12352,7 +12496,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1466</v>
       </c>
@@ -12384,7 +12528,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1466</v>
       </c>
@@ -12416,7 +12560,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1466</v>
       </c>
@@ -12448,7 +12592,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1466</v>
       </c>
@@ -12480,7 +12624,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1466</v>
       </c>
@@ -12512,7 +12656,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1466</v>
       </c>
@@ -12544,7 +12688,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1466</v>
       </c>
@@ -12576,7 +12720,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1466</v>
       </c>
@@ -12608,7 +12752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1466</v>
       </c>
@@ -12640,7 +12784,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1466</v>
       </c>
@@ -12672,7 +12816,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1466</v>
       </c>
@@ -12704,7 +12848,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1466</v>
       </c>
@@ -12736,7 +12880,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1466</v>
       </c>
@@ -12768,7 +12912,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1466</v>
       </c>
@@ -12800,7 +12944,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1466</v>
       </c>
@@ -12832,7 +12976,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1466</v>
       </c>
@@ -12864,7 +13008,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1466</v>
       </c>
@@ -12896,7 +13040,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1466</v>
       </c>
@@ -12928,7 +13072,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1466</v>
       </c>
@@ -12960,7 +13104,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1466</v>
       </c>
@@ -12992,7 +13136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1466</v>
       </c>
@@ -13024,7 +13168,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1466</v>
       </c>
@@ -13056,7 +13200,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1466</v>
       </c>
@@ -13088,7 +13232,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1466</v>
       </c>
@@ -13120,7 +13264,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1466</v>
       </c>
@@ -13152,7 +13296,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1466</v>
       </c>
@@ -13184,7 +13328,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1466</v>
       </c>
@@ -13216,7 +13360,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1466</v>
       </c>
@@ -13248,7 +13392,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1466</v>
       </c>
@@ -13280,7 +13424,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1466</v>
       </c>
@@ -13312,7 +13456,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1467</v>
       </c>
@@ -13343,8 +13487,11 @@
       <c r="J243" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K243" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1467</v>
       </c>
@@ -13375,8 +13522,11 @@
       <c r="J244" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K244" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1467</v>
       </c>
@@ -13407,8 +13557,11 @@
       <c r="J245" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K245" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1467</v>
       </c>
@@ -13439,8 +13592,11 @@
       <c r="J246" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K246" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1467</v>
       </c>
@@ -13471,8 +13627,11 @@
       <c r="J247" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K247" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1467</v>
       </c>
@@ -13503,8 +13662,11 @@
       <c r="J248" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K248" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1467</v>
       </c>
@@ -13535,8 +13697,11 @@
       <c r="J249" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K249" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1467</v>
       </c>
@@ -13567,8 +13732,11 @@
       <c r="J250" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K250" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1467</v>
       </c>
@@ -13599,8 +13767,11 @@
       <c r="J251" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K251" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1467</v>
       </c>
@@ -13631,8 +13802,11 @@
       <c r="J252" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K252" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1467</v>
       </c>
@@ -13663,8 +13837,11 @@
       <c r="J253" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K253" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1467</v>
       </c>
@@ -13695,8 +13872,11 @@
       <c r="J254" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K254" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1467</v>
       </c>
@@ -13727,8 +13907,11 @@
       <c r="J255" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K255" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1467</v>
       </c>
@@ -13759,8 +13942,11 @@
       <c r="J256" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K256" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1467</v>
       </c>
@@ -13791,8 +13977,11 @@
       <c r="J257" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K257" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1467</v>
       </c>
@@ -13823,8 +14012,11 @@
       <c r="J258" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K258" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1467</v>
       </c>
@@ -13855,8 +14047,11 @@
       <c r="J259" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K259" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1467</v>
       </c>
@@ -13887,8 +14082,11 @@
       <c r="J260" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K260" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1467</v>
       </c>
@@ -13919,8 +14117,11 @@
       <c r="J261" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K261" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1467</v>
       </c>
@@ -13951,8 +14152,11 @@
       <c r="J262" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K262" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1467</v>
       </c>
@@ -13983,8 +14187,11 @@
       <c r="J263" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K263" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1467</v>
       </c>
@@ -14015,8 +14222,11 @@
       <c r="J264" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K264" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1467</v>
       </c>
@@ -14047,8 +14257,11 @@
       <c r="J265" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K265" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1467</v>
       </c>
@@ -14079,8 +14292,11 @@
       <c r="J266" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K266" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1467</v>
       </c>
@@ -14111,8 +14327,11 @@
       <c r="J267" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K267" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1467</v>
       </c>
@@ -14143,8 +14362,11 @@
       <c r="J268" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K268" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1467</v>
       </c>
@@ -14175,8 +14397,11 @@
       <c r="J269" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K269" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1467</v>
       </c>
@@ -14207,8 +14432,11 @@
       <c r="J270" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K270" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1467</v>
       </c>
@@ -14239,8 +14467,11 @@
       <c r="J271" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K271" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1467</v>
       </c>
@@ -14271,8 +14502,11 @@
       <c r="J272" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K272" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1467</v>
       </c>
@@ -14303,8 +14537,11 @@
       <c r="J273" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K273" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1467</v>
       </c>
@@ -14335,8 +14572,11 @@
       <c r="J274" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K274" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1467</v>
       </c>
@@ -14367,8 +14607,11 @@
       <c r="J275" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K275" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1467</v>
       </c>
@@ -14399,8 +14642,11 @@
       <c r="J276" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K276" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1467</v>
       </c>
@@ -14431,8 +14677,11 @@
       <c r="J277" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K277" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1467</v>
       </c>
@@ -14463,8 +14712,11 @@
       <c r="J278" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K278" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1467</v>
       </c>
@@ -14495,8 +14747,11 @@
       <c r="J279" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K279" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1467</v>
       </c>
@@ -14527,8 +14782,11 @@
       <c r="J280" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K280" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1467</v>
       </c>
@@ -14559,8 +14817,11 @@
       <c r="J281" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K281" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1467</v>
       </c>
@@ -14591,8 +14852,11 @@
       <c r="J282" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K282" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1467</v>
       </c>
@@ -14623,8 +14887,11 @@
       <c r="J283" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K283" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1467</v>
       </c>
@@ -14655,8 +14922,11 @@
       <c r="J284" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K284" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1467</v>
       </c>
@@ -14687,8 +14957,11 @@
       <c r="J285" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K285" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1467</v>
       </c>
@@ -14719,8 +14992,11 @@
       <c r="J286" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K286" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1467</v>
       </c>
@@ -14751,8 +15027,11 @@
       <c r="J287" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K287" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1467</v>
       </c>
@@ -14783,8 +15062,11 @@
       <c r="J288" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K288" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1467</v>
       </c>
@@ -14815,8 +15097,11 @@
       <c r="J289" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K289" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1467</v>
       </c>
@@ -14847,8 +15132,11 @@
       <c r="J290" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K290" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1467</v>
       </c>
@@ -14879,8 +15167,11 @@
       <c r="J291" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K291" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1468</v>
       </c>
@@ -14912,7 +15203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1468</v>
       </c>
@@ -14944,7 +15235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1468</v>
       </c>
@@ -14976,7 +15267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1468</v>
       </c>
@@ -15008,7 +15299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1468</v>
       </c>
@@ -15040,7 +15331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1468</v>
       </c>
@@ -15072,7 +15363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1468</v>
       </c>
@@ -15104,7 +15395,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1468</v>
       </c>
@@ -15136,7 +15427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1468</v>
       </c>
@@ -15168,7 +15459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1468</v>
       </c>
@@ -15200,7 +15491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1468</v>
       </c>
@@ -15232,7 +15523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1468</v>
       </c>
@@ -15264,7 +15555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1468</v>
       </c>
@@ -15296,7 +15587,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1468</v>
       </c>
@@ -15328,7 +15619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1468</v>
       </c>
@@ -15360,7 +15651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1468</v>
       </c>
@@ -15392,7 +15683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1468</v>
       </c>
@@ -15424,7 +15715,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1468</v>
       </c>
@@ -15456,7 +15747,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1468</v>
       </c>
@@ -15488,7 +15779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1468</v>
       </c>
@@ -15520,7 +15811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1468</v>
       </c>
@@ -15552,7 +15843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1468</v>
       </c>
@@ -15584,7 +15875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1468</v>
       </c>
@@ -15616,7 +15907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1468</v>
       </c>
@@ -15648,7 +15939,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1468</v>
       </c>
@@ -15680,7 +15971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1468</v>
       </c>
@@ -15712,7 +16003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1468</v>
       </c>
@@ -15744,7 +16035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1468</v>
       </c>
@@ -15776,7 +16067,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1468</v>
       </c>
@@ -15808,7 +16099,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1468</v>
       </c>
@@ -15840,7 +16131,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1468</v>
       </c>
@@ -15872,7 +16163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1468</v>
       </c>
@@ -15904,7 +16195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1468</v>
       </c>
@@ -15936,7 +16227,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1468</v>
       </c>
@@ -15968,7 +16259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1468</v>
       </c>
@@ -16000,7 +16291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1468</v>
       </c>
@@ -16032,7 +16323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1468</v>
       </c>
@@ -16064,7 +16355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1468</v>
       </c>
@@ -16096,7 +16387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1468</v>
       </c>
@@ -16128,7 +16419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1468</v>
       </c>
@@ -16160,7 +16451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1468</v>
       </c>
@@ -16192,7 +16483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1468</v>
       </c>
@@ -16224,7 +16515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1468</v>
       </c>
@@ -16256,7 +16547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1468</v>
       </c>
@@ -16288,7 +16579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1468</v>
       </c>
@@ -16320,7 +16611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1468</v>
       </c>
@@ -16352,7 +16643,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1468</v>
       </c>
@@ -16384,7 +16675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1468</v>
       </c>
@@ -16416,7 +16707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1468</v>
       </c>
@@ -16448,7 +16739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1468</v>
       </c>
@@ -16480,7 +16771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1468</v>
       </c>
@@ -16512,7 +16803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1468</v>
       </c>
@@ -16544,7 +16835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1468</v>
       </c>
@@ -16576,7 +16867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1468</v>
       </c>
@@ -16608,7 +16899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1468</v>
       </c>
@@ -16640,7 +16931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1468</v>
       </c>
@@ -16672,7 +16963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1468</v>
       </c>
@@ -16704,7 +16995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1468</v>
       </c>
@@ -16736,7 +17027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1468</v>
       </c>
@@ -16768,7 +17059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1468</v>
       </c>
@@ -16800,7 +17091,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1468</v>
       </c>
@@ -16832,7 +17123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1468</v>
       </c>
@@ -16864,7 +17155,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1468</v>
       </c>
@@ -16896,7 +17187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1468</v>
       </c>
@@ -16928,7 +17219,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1468</v>
       </c>
@@ -16960,7 +17251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1468</v>
       </c>
@@ -16992,7 +17283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1468</v>
       </c>
@@ -17024,7 +17315,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1468</v>
       </c>
@@ -17056,7 +17347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1468</v>
       </c>
@@ -17088,7 +17379,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1468</v>
       </c>
@@ -17120,7 +17411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1468</v>
       </c>
@@ -17152,7 +17443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1468</v>
       </c>
@@ -17184,7 +17475,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1468</v>
       </c>
@@ -17216,7 +17507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1468</v>
       </c>
@@ -17248,7 +17539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1468</v>
       </c>
@@ -17280,7 +17571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1468</v>
       </c>
@@ -17312,7 +17603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1468</v>
       </c>
@@ -17344,7 +17635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1468</v>
       </c>
@@ -17376,7 +17667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1468</v>
       </c>
@@ -17408,7 +17699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1468</v>
       </c>
@@ -17440,7 +17731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1468</v>
       </c>
@@ -17472,7 +17763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1468</v>
       </c>
@@ -17504,7 +17795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1468</v>
       </c>
@@ -17536,7 +17827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1468</v>
       </c>
@@ -17568,7 +17859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1468</v>
       </c>
@@ -17600,7 +17891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1468</v>
       </c>
@@ -17632,7 +17923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1468</v>
       </c>
@@ -17664,7 +17955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1468</v>
       </c>
@@ -17696,7 +17987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1468</v>
       </c>
@@ -17728,7 +18019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1468</v>
       </c>
@@ -17760,7 +18051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1468</v>
       </c>
@@ -17792,7 +18083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1468</v>
       </c>
@@ -17824,7 +18115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1468</v>
       </c>
@@ -17856,7 +18147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1468</v>
       </c>
@@ -17888,7 +18179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1468</v>
       </c>
@@ -17920,7 +18211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1468</v>
       </c>
@@ -17952,7 +18243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1468</v>
       </c>
@@ -17984,7 +18275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1468</v>
       </c>
@@ -18016,7 +18307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1468</v>
       </c>
@@ -18048,7 +18339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1468</v>
       </c>
@@ -18080,7 +18371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1468</v>
       </c>
@@ -18112,7 +18403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1468</v>
       </c>
@@ -18144,7 +18435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1468</v>
       </c>
@@ -18176,7 +18467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1468</v>
       </c>
@@ -18208,7 +18499,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1468</v>
       </c>
@@ -18240,7 +18531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1468</v>
       </c>
@@ -18272,7 +18563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1468</v>
       </c>
@@ -18304,7 +18595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1468</v>
       </c>
@@ -18336,7 +18627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1468</v>
       </c>
@@ -18368,7 +18659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1468</v>
       </c>
@@ -18400,7 +18691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1468</v>
       </c>
@@ -18432,7 +18723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>1468</v>
       </c>
@@ -18464,7 +18755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>1468</v>
       </c>
@@ -18496,7 +18787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>1468</v>
       </c>
@@ -18528,7 +18819,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1468</v>
       </c>
@@ -18560,7 +18851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1468</v>
       </c>
@@ -18592,7 +18883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1468</v>
       </c>
@@ -18624,7 +18915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1468</v>
       </c>
@@ -18656,7 +18947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1468</v>
       </c>
@@ -18688,7 +18979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>1468</v>
       </c>
@@ -18720,7 +19011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>1468</v>
       </c>
@@ -18752,7 +19043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1468</v>
       </c>
@@ -18784,7 +19075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1468</v>
       </c>
@@ -18816,7 +19107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1468</v>
       </c>
@@ -18848,7 +19139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1468</v>
       </c>
@@ -18880,7 +19171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1468</v>
       </c>
@@ -18912,7 +19203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1468</v>
       </c>
@@ -18944,7 +19235,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1468</v>
       </c>
@@ -18976,7 +19267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1468</v>
       </c>
@@ -19008,7 +19299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1468</v>
       </c>
@@ -19040,7 +19331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1468</v>
       </c>
@@ -19072,7 +19363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1468</v>
       </c>
@@ -19104,7 +19395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1468</v>
       </c>
@@ -19136,7 +19427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1468</v>
       </c>
@@ -19168,7 +19459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1468</v>
       </c>
@@ -19200,7 +19491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1468</v>
       </c>
@@ -19232,7 +19523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1468</v>
       </c>
@@ -19264,7 +19555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1468</v>
       </c>
@@ -19296,7 +19587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1468</v>
       </c>
@@ -19328,7 +19619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1468</v>
       </c>
@@ -19360,7 +19651,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1468</v>
       </c>
@@ -19392,7 +19683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1468</v>
       </c>
@@ -19424,7 +19715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1468</v>
       </c>
@@ -19456,7 +19747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1468</v>
       </c>
@@ -19488,7 +19779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1468</v>
       </c>
@@ -19520,7 +19811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1468</v>
       </c>
@@ -19552,7 +19843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1468</v>
       </c>
@@ -19584,7 +19875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1468</v>
       </c>
@@ -19616,7 +19907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1468</v>
       </c>
@@ -19648,7 +19939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1468</v>
       </c>
@@ -19680,7 +19971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1468</v>
       </c>
@@ -19712,7 +20003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1468</v>
       </c>
@@ -19744,7 +20035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1468</v>
       </c>
@@ -19776,7 +20067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1468</v>
       </c>
@@ -19808,7 +20099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1468</v>
       </c>
@@ -19840,7 +20131,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1468</v>
       </c>
@@ -19872,7 +20163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1468</v>
       </c>
@@ -19904,7 +20195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1468</v>
       </c>
@@ -19936,7 +20227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1468</v>
       </c>
@@ -19968,7 +20259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1468</v>
       </c>
@@ -20000,7 +20291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1468</v>
       </c>
@@ -20032,7 +20323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1468</v>
       </c>
@@ -20064,7 +20355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1468</v>
       </c>
@@ -20096,7 +20387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1468</v>
       </c>
@@ -20128,7 +20419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1468</v>
       </c>
@@ -20160,7 +20451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1468</v>
       </c>
@@ -20192,7 +20483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1468</v>
       </c>
@@ -20224,7 +20515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1468</v>
       </c>
@@ -20256,7 +20547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1468</v>
       </c>
@@ -20288,7 +20579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1468</v>
       </c>
@@ -20320,7 +20611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1468</v>
       </c>
@@ -20352,7 +20643,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1468</v>
       </c>
@@ -20384,7 +20675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1468</v>
       </c>
@@ -20416,7 +20707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1468</v>
       </c>
@@ -20448,7 +20739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1468</v>
       </c>
@@ -20480,7 +20771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1468</v>
       </c>
@@ -20512,7 +20803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1468</v>
       </c>
@@ -20544,7 +20835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1468</v>
       </c>
@@ -20576,7 +20867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1468</v>
       </c>
@@ -20608,7 +20899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1468</v>
       </c>
@@ -20640,7 +20931,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1468</v>
       </c>
@@ -20672,7 +20963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1468</v>
       </c>
@@ -20704,7 +20995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1468</v>
       </c>
@@ -20736,7 +21027,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1468</v>
       </c>
@@ -20768,7 +21059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1468</v>
       </c>
@@ -20800,7 +21091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1468</v>
       </c>
@@ -20832,7 +21123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1468</v>
       </c>
@@ -20864,7 +21155,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1468</v>
       </c>
@@ -20896,7 +21187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1468</v>
       </c>
@@ -20928,7 +21219,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1468</v>
       </c>
@@ -20960,7 +21251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1468</v>
       </c>
@@ -20992,7 +21283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1468</v>
       </c>
@@ -21024,7 +21315,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1468</v>
       </c>
@@ -21056,7 +21347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1468</v>
       </c>
@@ -21088,7 +21379,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1468</v>
       </c>
@@ -21120,7 +21411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1468</v>
       </c>
@@ -21152,7 +21443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1468</v>
       </c>
@@ -21184,7 +21475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1468</v>
       </c>
@@ -21216,7 +21507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1468</v>
       </c>
@@ -21248,7 +21539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1468</v>
       </c>
@@ -21280,7 +21571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1468</v>
       </c>
@@ -21312,7 +21603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1468</v>
       </c>
@@ -21344,7 +21635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1468</v>
       </c>
@@ -21376,7 +21667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1468</v>
       </c>
@@ -21408,7 +21699,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1468</v>
       </c>
@@ -21440,7 +21731,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1468</v>
       </c>
@@ -21472,7 +21763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1468</v>
       </c>
@@ -21504,7 +21795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1468</v>
       </c>
@@ -21536,7 +21827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1468</v>
       </c>
@@ -21568,7 +21859,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1468</v>
       </c>
@@ -21600,7 +21891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1468</v>
       </c>
@@ -21632,7 +21923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1468</v>
       </c>
@@ -21664,7 +21955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1468</v>
       </c>
@@ -21696,7 +21987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1468</v>
       </c>
@@ -21728,7 +22019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1468</v>
       </c>
@@ -21760,7 +22051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1468</v>
       </c>
@@ -21792,7 +22083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1468</v>
       </c>
@@ -21824,7 +22115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1468</v>
       </c>
@@ -21856,7 +22147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1468</v>
       </c>
@@ -21888,7 +22179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1468</v>
       </c>
@@ -21920,7 +22211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1468</v>
       </c>
@@ -21952,7 +22243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1468</v>
       </c>
@@ -21984,7 +22275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1468</v>
       </c>
@@ -22016,7 +22307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1468</v>
       </c>
@@ -22048,7 +22339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1468</v>
       </c>
@@ -22080,7 +22371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1468</v>
       </c>
@@ -22112,7 +22403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1468</v>
       </c>
@@ -22144,7 +22435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1468</v>
       </c>
@@ -22176,7 +22467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1468</v>
       </c>
@@ -22208,7 +22499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1468</v>
       </c>
@@ -22240,7 +22531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1468</v>
       </c>
@@ -22272,7 +22563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1468</v>
       </c>
@@ -22304,7 +22595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1468</v>
       </c>
@@ -22336,7 +22627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1468</v>
       </c>
@@ -22368,7 +22659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1468</v>
       </c>
@@ -22400,7 +22691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1468</v>
       </c>
@@ -22432,7 +22723,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1468</v>
       </c>
@@ -22464,7 +22755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1468</v>
       </c>
@@ -22496,7 +22787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1468</v>
       </c>
@@ -22528,7 +22819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1468</v>
       </c>
@@ -22560,7 +22851,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1468</v>
       </c>
@@ -22592,7 +22883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1468</v>
       </c>
@@ -22624,7 +22915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1468</v>
       </c>
@@ -22656,7 +22947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1468</v>
       </c>
@@ -22688,7 +22979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1468</v>
       </c>
@@ -22720,7 +23011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1468</v>
       </c>
@@ -22752,7 +23043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1468</v>
       </c>
@@ -22784,7 +23075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1468</v>
       </c>
@@ -22816,7 +23107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1468</v>
       </c>
@@ -22848,7 +23139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1468</v>
       </c>
@@ -22880,7 +23171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1468</v>
       </c>
@@ -22912,7 +23203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1468</v>
       </c>
@@ -22944,7 +23235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1468</v>
       </c>
@@ -22976,7 +23267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1468</v>
       </c>
@@ -23008,7 +23299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1468</v>
       </c>
@@ -23040,7 +23331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1468</v>
       </c>
@@ -23072,7 +23363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1468</v>
       </c>
@@ -23104,7 +23395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1468</v>
       </c>
@@ -23136,7 +23427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1468</v>
       </c>
@@ -23168,7 +23459,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1468</v>
       </c>
@@ -23200,7 +23491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1468</v>
       </c>
@@ -23232,7 +23523,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1468</v>
       </c>
@@ -23264,7 +23555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1468</v>
       </c>
@@ -23296,7 +23587,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1468</v>
       </c>
@@ -23328,7 +23619,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1468</v>
       </c>
@@ -23360,7 +23651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1468</v>
       </c>
@@ -23392,7 +23683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1468</v>
       </c>
@@ -23424,7 +23715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1468</v>
       </c>
@@ -23456,7 +23747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1468</v>
       </c>
@@ -23488,7 +23779,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1468</v>
       </c>
@@ -23520,7 +23811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1468</v>
       </c>
@@ -23552,7 +23843,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1468</v>
       </c>
@@ -23584,7 +23875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1468</v>
       </c>
@@ -23616,7 +23907,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1468</v>
       </c>
@@ -23648,7 +23939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1468</v>
       </c>
@@ -23680,7 +23971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1468</v>
       </c>
@@ -23712,7 +24003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1468</v>
       </c>
@@ -23744,7 +24035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1468</v>
       </c>
@@ -23776,7 +24067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1468</v>
       </c>
@@ -23808,7 +24099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1468</v>
       </c>
@@ -23840,7 +24131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1468</v>
       </c>
@@ -23872,7 +24163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1468</v>
       </c>
@@ -23904,7 +24195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1468</v>
       </c>
@@ -23936,7 +24227,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1468</v>
       </c>
@@ -23968,7 +24259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1468</v>
       </c>
@@ -24000,7 +24291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1468</v>
       </c>
@@ -24032,7 +24323,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1468</v>
       </c>
@@ -24064,7 +24355,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1468</v>
       </c>
@@ -24096,7 +24387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1468</v>
       </c>
@@ -24128,7 +24419,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1468</v>
       </c>
@@ -24160,7 +24451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1468</v>
       </c>
@@ -24192,7 +24483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1468</v>
       </c>
@@ -24224,7 +24515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1468</v>
       </c>
@@ -24256,7 +24547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1468</v>
       </c>
@@ -24288,7 +24579,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1468</v>
       </c>
@@ -24320,7 +24611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1468</v>
       </c>
@@ -24352,7 +24643,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1468</v>
       </c>
@@ -24384,7 +24675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1468</v>
       </c>
@@ -24416,7 +24707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1468</v>
       </c>
@@ -24448,7 +24739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1468</v>
       </c>
@@ -24480,7 +24771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1468</v>
       </c>
@@ -24512,7 +24803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1468</v>
       </c>
@@ -24544,7 +24835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1468</v>
       </c>
@@ -24576,7 +24867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1468</v>
       </c>
@@ -24608,7 +24899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1468</v>
       </c>
@@ -24640,7 +24931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1468</v>
       </c>
@@ -24672,7 +24963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1468</v>
       </c>
@@ -24704,7 +24995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1468</v>
       </c>
@@ -24736,7 +25027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1468</v>
       </c>
@@ -24768,7 +25059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1468</v>
       </c>
@@ -24800,7 +25091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1468</v>
       </c>
@@ -24832,7 +25123,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1468</v>
       </c>
@@ -24864,7 +25155,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1468</v>
       </c>
@@ -24896,7 +25187,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1468</v>
       </c>
@@ -24928,7 +25219,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1468</v>
       </c>
@@ -24960,7 +25251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1468</v>
       </c>
@@ -24992,7 +25283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1468</v>
       </c>
@@ -25024,7 +25315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1468</v>
       </c>
@@ -25056,7 +25347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1468</v>
       </c>
@@ -25088,7 +25379,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1468</v>
       </c>
@@ -25120,7 +25411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1468</v>
       </c>
@@ -25152,7 +25443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1468</v>
       </c>
@@ -25184,7 +25475,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1468</v>
       </c>
@@ -25216,7 +25507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1468</v>
       </c>
@@ -25248,7 +25539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1468</v>
       </c>
@@ -25280,7 +25571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1468</v>
       </c>
@@ -25312,7 +25603,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1468</v>
       </c>
@@ -25344,7 +25635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1468</v>
       </c>
@@ -25376,7 +25667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1468</v>
       </c>
@@ -25408,7 +25699,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1468</v>
       </c>
@@ -25440,7 +25731,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1468</v>
       </c>
@@ -25472,7 +25763,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1468</v>
       </c>
@@ -25504,7 +25795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1468</v>
       </c>
@@ -25536,7 +25827,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1468</v>
       </c>
@@ -25568,7 +25859,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1468</v>
       </c>
@@ -25600,7 +25891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1468</v>
       </c>
@@ -25632,7 +25923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1468</v>
       </c>
@@ -25814,6 +26105,55 @@
     <hyperlink ref="D2" r:id="rId146" xr:uid="{0957D6C9-8151-461D-96CB-F4F559C0486F}"/>
     <hyperlink ref="D47" r:id="rId147" xr:uid="{AED656AB-383C-4715-9509-328CD3B28AE2}"/>
     <hyperlink ref="D14" r:id="rId148" xr:uid="{6217E568-59AC-48C6-96FB-218C51D9443A}"/>
+    <hyperlink ref="K244" r:id="rId149" xr:uid="{34831BFD-6193-4E1D-9F2D-8B4DE8AF9702}"/>
+    <hyperlink ref="K243" r:id="rId150" xr:uid="{85C8F93E-A6FD-4AAB-935C-AD361D733316}"/>
+    <hyperlink ref="K245" r:id="rId151" xr:uid="{CB4C16DF-BFD6-40CB-B740-3EA09DAC9451}"/>
+    <hyperlink ref="K246" r:id="rId152" xr:uid="{B5DBFC0A-6BE6-46AE-B29A-DD9F620E6031}"/>
+    <hyperlink ref="K247" r:id="rId153" xr:uid="{4B6247D9-F551-4FE5-97B4-31AFBF4BE4AE}"/>
+    <hyperlink ref="K248" r:id="rId154" xr:uid="{8A6888C8-6880-49F8-91CC-2D388EA4A639}"/>
+    <hyperlink ref="K249" r:id="rId155" xr:uid="{A8251852-3B84-48ED-AD06-3B751E90A370}"/>
+    <hyperlink ref="K250" r:id="rId156" xr:uid="{631E7174-F2A5-41AF-857D-010B2355D771}"/>
+    <hyperlink ref="K251" r:id="rId157" xr:uid="{DE39103A-8C70-427A-8F2A-7687B15B7190}"/>
+    <hyperlink ref="K252" r:id="rId158" xr:uid="{3124DF29-B889-494B-909F-5AAC1B6AF1CA}"/>
+    <hyperlink ref="K253" r:id="rId159" xr:uid="{07F7431F-48A4-42C4-B0EC-893B8D8465E2}"/>
+    <hyperlink ref="K254" r:id="rId160" xr:uid="{1B95F660-074E-40B9-AB3C-E1E5DCE4F4BC}"/>
+    <hyperlink ref="K255" r:id="rId161" xr:uid="{AE451809-D7A1-42B3-8D22-1D01F9B10A2B}"/>
+    <hyperlink ref="K256" r:id="rId162" xr:uid="{7EF45980-BE34-4D77-9779-956CA9499457}"/>
+    <hyperlink ref="K257" r:id="rId163" xr:uid="{794A9225-7E31-424D-8DDB-C442C320AE25}"/>
+    <hyperlink ref="K258" r:id="rId164" xr:uid="{202B40B9-0CFF-4648-B8DF-EADA42969116}"/>
+    <hyperlink ref="K259" r:id="rId165" xr:uid="{E1DCA91E-F7E7-43BB-ACD6-F1F36AC35D8E}"/>
+    <hyperlink ref="K260" r:id="rId166" xr:uid="{F77F9070-0298-4606-885A-B0A0E284105C}"/>
+    <hyperlink ref="K261" r:id="rId167" xr:uid="{F8E63B97-8B15-446E-AA8B-37319A24F15F}"/>
+    <hyperlink ref="K262" r:id="rId168" xr:uid="{2196A49F-8D97-4469-811C-AF3A6EC7797D}"/>
+    <hyperlink ref="K263" r:id="rId169" xr:uid="{FC6AEFBB-E60E-404D-B882-551647C39544}"/>
+    <hyperlink ref="K264" r:id="rId170" xr:uid="{63D38360-4EAC-425F-9707-6762F0804945}"/>
+    <hyperlink ref="K265" r:id="rId171" xr:uid="{F2D920BF-492A-48CD-87D1-F6ABA649C0B5}"/>
+    <hyperlink ref="K266" r:id="rId172" xr:uid="{38185C2A-B961-4AEB-9874-2B9CA0893343}"/>
+    <hyperlink ref="K267" r:id="rId173" xr:uid="{0C590064-0060-41A3-AB32-92C5F7A8FBAF}"/>
+    <hyperlink ref="K268" r:id="rId174" xr:uid="{736015B7-B958-4AE3-B677-F2A08734A52B}"/>
+    <hyperlink ref="K269" r:id="rId175" xr:uid="{B2FCEE88-010A-43F3-9C61-A531E1348BF8}"/>
+    <hyperlink ref="K270" r:id="rId176" xr:uid="{283B0F43-0F56-4F15-BC38-A2EE8FCEE3FC}"/>
+    <hyperlink ref="K271" r:id="rId177" xr:uid="{CD0FD15C-8D6F-4D0B-9064-8CCA42191EA7}"/>
+    <hyperlink ref="K272" r:id="rId178" xr:uid="{0AE0CA7E-AC55-42CD-B9F4-F0AE0CC8D366}"/>
+    <hyperlink ref="K273" r:id="rId179" xr:uid="{347C9F76-2459-443D-A45A-E304F9683092}"/>
+    <hyperlink ref="K274" r:id="rId180" xr:uid="{40D1475A-8251-4D11-9189-98B0435FC543}"/>
+    <hyperlink ref="K275" r:id="rId181" xr:uid="{C0B67817-75E8-4556-BE4F-89863DECDD46}"/>
+    <hyperlink ref="K276" r:id="rId182" xr:uid="{25844C4F-5A4B-4B10-B751-6E8CE8AC6234}"/>
+    <hyperlink ref="K277" r:id="rId183" xr:uid="{58A37E12-41D5-4B37-8B6C-5C260D3616EB}"/>
+    <hyperlink ref="K278" r:id="rId184" xr:uid="{E2F178FD-C2CA-4160-84B8-F88DD9D655F4}"/>
+    <hyperlink ref="K279" r:id="rId185" xr:uid="{C780D97A-93DD-4A30-9903-D2E57E0BFE8D}"/>
+    <hyperlink ref="K280" r:id="rId186" xr:uid="{990ADA3F-F9B6-41E0-A7ED-B9267780EBC3}"/>
+    <hyperlink ref="K281" r:id="rId187" xr:uid="{2C0D90D1-9123-4768-AC38-8AE9C909B703}"/>
+    <hyperlink ref="K282" r:id="rId188" xr:uid="{447E40A4-A1C7-47EE-B516-9CD0B8EF3CC5}"/>
+    <hyperlink ref="K283" r:id="rId189" xr:uid="{5C6D07D4-2185-4937-9563-1118CB870D3C}"/>
+    <hyperlink ref="K284" r:id="rId190" xr:uid="{6D2B5547-B73A-471E-BFB8-B7F6732A5EE2}"/>
+    <hyperlink ref="K285" r:id="rId191" xr:uid="{6DDBC846-E1CF-46B8-BE81-7B22FE81BF6E}"/>
+    <hyperlink ref="K286" r:id="rId192" xr:uid="{DFADD8EB-3F8E-4DF0-9D3C-1A758E1F53E1}"/>
+    <hyperlink ref="K287" r:id="rId193" xr:uid="{8A5B37CD-9341-41A3-8F3D-05FC4151CD80}"/>
+    <hyperlink ref="K288" r:id="rId194" xr:uid="{359570E7-909D-4284-9F43-CEDE6B1D0B5D}"/>
+    <hyperlink ref="K289" r:id="rId195" xr:uid="{A6E4E01A-F904-471A-8577-4661036EA395}"/>
+    <hyperlink ref="K290" r:id="rId196" xr:uid="{95B84C90-1AA9-41E0-B124-65F2F992B647}"/>
+    <hyperlink ref="K291" r:id="rId197" xr:uid="{A978E781-BB26-40EE-9CCC-CCAA89FD9333}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/products-Excel.xlsx
+++ b/src/main/resources/products-Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ACC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHARAD\Desktop\ACC CHAPTERS PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6298C-2BD4-475A-A96D-280EE7310EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B022FE8A-F959-48C6-9FB1-9ADDCAD19AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6B59C98-8537-4701-B434-75DDBC406416}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6330" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6331" uniqueCount="1602">
   <si>
     <t>ProductName</t>
   </si>
@@ -4823,6 +4823,9 @@
   </si>
   <si>
     <t>https://rog.asus.com/ca-en/laptops/rog-flow/2021-rog-flow-x13-series/</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -5694,10 +5697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068153E-CE61-4AE3-ACD6-6199127DD3CE}">
-  <dimension ref="A1:K628"/>
+  <dimension ref="A1:L628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="105" workbookViewId="0">
-      <selection activeCell="K259" sqref="K259"/>
+    <sheetView tabSelected="1" topLeftCell="F241" zoomScale="105" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5707,6 +5710,7 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="99.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -13392,7 +13396,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1466</v>
       </c>
@@ -13423,8 +13427,11 @@
       <c r="J241" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L241" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1466</v>
       </c>
@@ -13456,7 +13463,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1467</v>
       </c>
@@ -13491,7 +13498,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1467</v>
       </c>
@@ -13526,7 +13533,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1467</v>
       </c>
@@ -13561,7 +13568,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1467</v>
       </c>
@@ -13596,7 +13603,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1467</v>
       </c>
@@ -13631,7 +13638,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1467</v>
       </c>
@@ -13666,7 +13673,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1467</v>
       </c>
@@ -13701,7 +13708,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1467</v>
       </c>
@@ -13736,7 +13743,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1467</v>
       </c>
@@ -13771,7 +13778,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1467</v>
       </c>
@@ -13806,7 +13813,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1467</v>
       </c>
@@ -13841,7 +13848,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1467</v>
       </c>
@@ -13876,7 +13883,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1467</v>
       </c>
@@ -13911,7 +13918,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1467</v>
       </c>
